--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3942.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3942.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169025946454323</v>
+        <v>0.5035300850868225</v>
       </c>
       <c r="B1">
-        <v>1.825504238301273</v>
+        <v>0.7527438998222351</v>
       </c>
       <c r="C1">
-        <v>4.613050095102795</v>
+        <v>4.007334232330322</v>
       </c>
       <c r="D1">
-        <v>5.234220360228084</v>
+        <v>2.066445827484131</v>
       </c>
       <c r="E1">
-        <v>1.604722332975737</v>
+        <v>1.072391033172607</v>
       </c>
     </row>
   </sheetData>
